--- a/BVNSA/Informe Diario.xlsx
+++ b/BVNSA/Informe Diario.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="17-11-2022" sheetId="1" r:id="rId1"/>
+    <sheet name="07-12-2022" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>MERCADOS</t>
   </si>
@@ -28,46 +28,7 @@
     <t>DOLARES</t>
   </si>
   <si>
-    <t>Primario</t>
-  </si>
-  <si>
-    <t>Secundario</t>
-  </si>
-  <si>
-    <t>Reportos</t>
-  </si>
-  <si>
-    <t>Operaciones Overnight</t>
-  </si>
-  <si>
-    <t>Primario Privado</t>
-  </si>
-  <si>
-    <t>Acciones</t>
-  </si>
-  <si>
-    <t>CDP's</t>
-  </si>
-  <si>
-    <t>Certibonos</t>
-  </si>
-  <si>
-    <t>Secundario Privado</t>
-  </si>
-  <si>
-    <t>Secundario Público</t>
-  </si>
-  <si>
-    <t>Pactos</t>
-  </si>
-  <si>
-    <t>Neutralización liquidez</t>
-  </si>
-  <si>
-    <t>Inyección liquidez</t>
-  </si>
-  <si>
-    <t>Totales:</t>
+    <t>Ningún dato disponible en esta tabla</t>
   </si>
 </sst>
 </file>
@@ -425,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,180 +414,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E2" t="s">
         <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>400000</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>682700932.92</v>
-      </c>
-      <c r="E8">
-        <v>65853623.14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>1330000000</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>2013100932.92</v>
-      </c>
-      <c r="E12">
-        <v>65853623.14</v>
       </c>
     </row>
   </sheetData>
